--- a/hello.xlsx
+++ b/hello.xlsx
@@ -64,7 +64,7 @@
     <t>ps -ef | grep elasticsearch | grep -v 'grep'</t>
   </si>
   <si>
-    <t xml:space="preserve">  501 72947 72770   0 월03PM ttys002   25:46.57 /usr/bin/java -Xms1g -Xmx1g -XX:+UseConcMarkSweepGC -XX:CMSInitiatingOccupancyFraction=75 -XX:+UseCMSInitiatingOccupancyOnly -XX:+AlwaysPreTouch -Xss1m -Djava.awt.headless=true -Dfile.encoding=UTF-8 -Djna.nosys=true -XX:-OmitStackTraceInFastThrow -Dio.netty.noUnsafe=true -Dio.netty.noKeySetOptimization=true -Dio.netty.recycler.maxCapacityPerThread=0 -Dlog4j.shutdownHookEnabled=false -Dlog4j2.disable.jmx=true -Djava.io.tmpdir=/var/folders/q2/prpmdzgj34x994jw8jr30c1m0000gn/T/elasticsearch.PsSywr92 -XX:+HeapDumpOnOutOfMemoryError -XX:HeapDumpPath=data -XX:ErrorFile=logs/hs_err_pid%p.log -XX:+PrintGCDetails -XX:+PrintGCDateStamps -XX:+PrintTenuringDistribution -XX:+PrintGCApplicationStoppedTime -Xloggc:logs/gc.log -XX:+UseGCLogFileRotation -XX:NumberOfGCLogFiles=32 -XX:GCLogFileSize=64m -Des.path.home=/Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4 -Des.path.conf=/Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4/config -Des.distribution.flavor=default -Des.distribution.type=tar -cp /Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4/lib/* org.elasticsearch.bootstrap.Elasticsearch
+    <t xml:space="preserve">  501 72947 72770   0 월03PM ttys002   25:47.48 /usr/bin/java -Xms1g -Xmx1g -XX:+UseConcMarkSweepGC -XX:CMSInitiatingOccupancyFraction=75 -XX:+UseCMSInitiatingOccupancyOnly -XX:+AlwaysPreTouch -Xss1m -Djava.awt.headless=true -Dfile.encoding=UTF-8 -Djna.nosys=true -XX:-OmitStackTraceInFastThrow -Dio.netty.noUnsafe=true -Dio.netty.noKeySetOptimization=true -Dio.netty.recycler.maxCapacityPerThread=0 -Dlog4j.shutdownHookEnabled=false -Dlog4j2.disable.jmx=true -Djava.io.tmpdir=/var/folders/q2/prpmdzgj34x994jw8jr30c1m0000gn/T/elasticsearch.PsSywr92 -XX:+HeapDumpOnOutOfMemoryError -XX:HeapDumpPath=data -XX:ErrorFile=logs/hs_err_pid%p.log -XX:+PrintGCDetails -XX:+PrintGCDateStamps -XX:+PrintTenuringDistribution -XX:+PrintGCApplicationStoppedTime -Xloggc:logs/gc.log -XX:+UseGCLogFileRotation -XX:NumberOfGCLogFiles=32 -XX:GCLogFileSize=64m -Des.path.home=/Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4 -Des.path.conf=/Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4/config -Des.distribution.flavor=default -Des.distribution.type=tar -cp /Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4/lib/* org.elasticsearch.bootstrap.Elasticsearch
   501 72971 72947   0 월03PM ttys002    0:00.01 /Users/may-han/Documents/ELk/elasticsearch/elasticsearch-6.5.4/modules/x-pack-ml/platform/darwin-x86_64/bin/controller
 </t>
   </si>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">Filesystem                                     Size   Used  Avail Capacity iused      ifree %iused  Mounted on
 /dev/disk1s1                                  466Gi   10Gi  298Gi     4%  488473 4881964407    0%   /
 devfs                                         191Ki  191Ki    0Bi   100%     660          0  100%   /dev
-/dev/disk1s2                                  466Gi  152Gi  298Gi    34% 2621393 4879831487    0%   /System/Volumes/Data
+/dev/disk1s2                                  466Gi  152Gi  298Gi    34% 2621412 4879831468    0%   /System/Volumes/Data
 /dev/disk1s5                                  466Gi  4.0Gi  298Gi     2%       4 4882452876    0%   /private/var/vm
 map auto_home                                   0Bi    0Bi    0Bi   100%       0          0  100%   /System/Volumes/Data/home
 /Users/may-han/Downloads/Scroll Reverser.app  466Gi  149Gi  305Gi    33% 2566398 4879886482    0%   /private/var/folders/q2/prpmdzgj34x994jw8jr30c1m0000gn/T/AppTranslocation/3B93C2DD-1BD0-477F-8758-A523A06D08BA
